--- a/Win64/Debug/res/History.xlsx
+++ b/Win64/Debug/res/History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Delphi\Секретарь\Секретарь_v2\Win64\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346A726-DAD7-49DC-AA91-B100F28054F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F1B31F-1953-4BA4-9151-EF83A2E66869}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
   <si>
     <t>Биомеханика</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Почерк</t>
+  </si>
+  <si>
+    <t>Добавил проверку дня недели если текущее время меньше времени последней ячейки</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -564,7 +567,7 @@
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="101.77734375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -1576,6 +1579,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.1491550925925926</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.18293981481481481</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
 </worksheet>
